--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
@@ -668,40 +668,40 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2286418605659838</v>
+        <v>0.3031190035712913</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0883979757449974</v>
       </c>
       <c r="F2">
-        <v>0.4476256877643685</v>
+        <v>0.1644632650271061</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02594290329360358</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01230553751428857</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.07168395818286837</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01534085053127212</v>
+        <v>0.02144785532583472</v>
       </c>
       <c r="N2">
-        <v>0.02974716198938816</v>
+        <v>0.0267374004219901</v>
       </c>
       <c r="O2">
-        <v>0.07955268351463433</v>
+        <v>0.1175593156318788</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -713,46 +713,46 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04696276741955353</v>
+        <v>0.01016620169494429</v>
       </c>
       <c r="T2">
-        <v>0.001844424448398699</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.008145657074384242</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.03004987957805371</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0004191753927770262</v>
       </c>
       <c r="Z2">
-        <v>0.035713572500001</v>
+        <v>0.0280513473407585</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.03753397820413362</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.001741637330001056</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00495476557886092</v>
+        <v>0.02595129983818656</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.02034017435382522</v>
+        <v>0.07626384911908973</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02513761138767244</v>
+        <v>0.01415819965985387</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -775,40 +775,40 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2030359476101878</v>
+        <v>0.2427927591715783</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03098489674869604</v>
       </c>
       <c r="F3">
-        <v>0.4671898946942191</v>
+        <v>0.2733551090779163</v>
       </c>
       <c r="G3">
-        <v>0.0009979513723979152</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02609948168871957</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01799409903328669</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.06635500826628288</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01521711615217846</v>
+        <v>0.05005877959622725</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01362785576705813</v>
       </c>
       <c r="O3">
-        <v>0.1049924716440094</v>
+        <v>0.1248843838207668</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.008126883096635232</v>
+        <v>0.009923411051738116</v>
       </c>
       <c r="T3">
-        <v>0.02376309779150702</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01217228462583452</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01152589977333775</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04537013605533151</v>
+        <v>0.0187218221550144</v>
       </c>
       <c r="AA3">
-        <v>0.01533219932413948</v>
+        <v>0.03575507182462356</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01676121160870259</v>
+        <v>0.0332449196825322</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02418365173443643</v>
+        <v>0.06976495105458219</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02523177282836344</v>
+        <v>0.01253693274969687</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,40 +882,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152529212304223</v>
+        <v>0.2237373938088804</v>
       </c>
       <c r="E4">
-        <v>0.04413316267050671</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4624364012047548</v>
+        <v>0.321200441171123</v>
       </c>
       <c r="G4">
-        <v>0.05115389306322299</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03923686602650097</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005497491812740805</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.017795087159188</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.05146105269463699</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0439549822073467</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.01351457695460795</v>
       </c>
       <c r="O4">
-        <v>0.08291858815308162</v>
+        <v>0.1319441816698571</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.004449977888918484</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001401171764439915</v>
+        <v>0.0169653724473665</v>
       </c>
       <c r="T4">
-        <v>0.0424684464222511</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03486477573522739</v>
+        <v>0.0002526385400780438</v>
       </c>
       <c r="X4">
-        <v>0.004394526785374482</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003681724392147476</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04769709085191239</v>
+        <v>0.02717019437448926</v>
       </c>
       <c r="AA4">
-        <v>0.01538347037523616</v>
+        <v>0.03375309313982502</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0179976978033023</v>
+        <v>0.04125919434615193</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01205174607016898</v>
+        <v>0.06176165981150996</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01498004774979135</v>
+        <v>0.01523013167493904</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,40 +989,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2818162333898037</v>
+        <v>0.2162353177400979</v>
       </c>
       <c r="E5">
-        <v>0.1201554016982328</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.261023220444124</v>
+        <v>0.3406231584542422</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02075029777593906</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008593943463216383</v>
+        <v>0.02344090380696458</v>
       </c>
       <c r="K5">
-        <v>0.01089467913624654</v>
+        <v>0.03202418264114629</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.01690920482654852</v>
       </c>
       <c r="M5">
-        <v>0.01866724908379461</v>
+        <v>0.0453104841023523</v>
       </c>
       <c r="N5">
-        <v>0.02698215942236624</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.08647845761436396</v>
+        <v>0.1346306086304135</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01517961559298407</v>
+        <v>0.003486219972806282</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1043,37 +1043,37 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005712868888609325</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.003111863179336475</v>
       </c>
       <c r="X5">
-        <v>0.02458992941514733</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0002290534924206788</v>
       </c>
       <c r="Z5">
-        <v>0.05505691056833358</v>
+        <v>0.01709965846499895</v>
       </c>
       <c r="AA5">
-        <v>0.002399732318684702</v>
+        <v>0.04596689557064008</v>
       </c>
       <c r="AB5">
-        <v>0.01356999317160426</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.006842634444460041</v>
+        <v>0.04061832093084964</v>
       </c>
       <c r="AE5">
-        <v>0.001983927539412212</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01747978806359695</v>
+        <v>0.0696072112659024</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02182295796908004</v>
+        <v>0.01070691692128019</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,40 +1096,40 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2630237311841145</v>
+        <v>0.2984912183988795</v>
       </c>
       <c r="E6">
-        <v>0.05386727994944034</v>
+        <v>0.09495260636911958</v>
       </c>
       <c r="F6">
-        <v>0.3375679340521504</v>
+        <v>0.1933079313486687</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04076941166413879</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004755764058608988</v>
+        <v>0.009431081183990969</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0657346643952554</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01923994433078173</v>
+        <v>0.02129885383129379</v>
       </c>
       <c r="N6">
-        <v>0.01102200968272733</v>
+        <v>0.02529810914559221</v>
       </c>
       <c r="O6">
-        <v>0.09964430582855854</v>
+        <v>0.09593805322703408</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1141,46 +1141,46 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.009658899533697004</v>
+        <v>0.02844398971204188</v>
       </c>
       <c r="T6">
-        <v>0.002155024117859209</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.00428031002709753</v>
+        <v>0.0007466791188451945</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02934805327942772</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.06529339219559213</v>
+        <v>0.02949953749219163</v>
       </c>
       <c r="AA6">
-        <v>0.00363344543396361</v>
+        <v>0.01929161178276333</v>
       </c>
       <c r="AB6">
-        <v>0.008704511804244201</v>
+        <v>0.005679545711246983</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01231079178945854</v>
+        <v>0.02176445753184757</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.00469890343598246</v>
       </c>
       <c r="AF6">
-        <v>0.01343873810873514</v>
+        <v>0.06308774211551206</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02128645295940439</v>
+        <v>0.02233501519973443</v>
       </c>
     </row>
   </sheetData>
@@ -1323,97 +1323,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2286418605659838</v>
+        <v>0.3031190035712913</v>
       </c>
       <c r="E2">
-        <v>0.2286418605659838</v>
+        <v>0.3915169793162887</v>
       </c>
       <c r="F2">
-        <v>0.6762675483303523</v>
+        <v>0.5559802443433948</v>
       </c>
       <c r="G2">
-        <v>0.6762675483303523</v>
+        <v>0.5559802443433948</v>
       </c>
       <c r="H2">
-        <v>0.7022104516239559</v>
+        <v>0.5559802443433948</v>
       </c>
       <c r="I2">
-        <v>0.7022104516239559</v>
+        <v>0.5559802443433948</v>
       </c>
       <c r="J2">
-        <v>0.7022104516239559</v>
+        <v>0.5682857818576833</v>
       </c>
       <c r="K2">
-        <v>0.7022104516239559</v>
+        <v>0.6399697400405516</v>
       </c>
       <c r="L2">
-        <v>0.7022104516239559</v>
+        <v>0.6399697400405516</v>
       </c>
       <c r="M2">
-        <v>0.717551302155228</v>
+        <v>0.6614175953663863</v>
       </c>
       <c r="N2">
-        <v>0.7472984641446162</v>
+        <v>0.6881549957883765</v>
       </c>
       <c r="O2">
-        <v>0.8268511476592505</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="P2">
-        <v>0.8268511476592505</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="Q2">
-        <v>0.8268511476592505</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="R2">
-        <v>0.8268511476592505</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="S2">
-        <v>0.873813915078804</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="T2">
-        <v>0.8756583395272027</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="U2">
-        <v>0.8756583395272027</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="V2">
-        <v>0.8838039966015869</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="W2">
-        <v>0.8838039966015869</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="X2">
-        <v>0.9138538761796406</v>
+        <v>0.8158805131151996</v>
       </c>
       <c r="Y2">
-        <v>0.9138538761796406</v>
+        <v>0.8162996885079766</v>
       </c>
       <c r="Z2">
-        <v>0.9495674486796416</v>
+        <v>0.8443510358487352</v>
       </c>
       <c r="AA2">
-        <v>0.9495674486796416</v>
+        <v>0.8818850140528688</v>
       </c>
       <c r="AB2">
-        <v>0.9495674486796416</v>
+        <v>0.8836266513828699</v>
       </c>
       <c r="AC2">
-        <v>0.9495674486796416</v>
+        <v>0.8836266513828699</v>
       </c>
       <c r="AD2">
-        <v>0.9545222142585025</v>
+        <v>0.9095779512210564</v>
       </c>
       <c r="AE2">
-        <v>0.9545222142585025</v>
+        <v>0.9095779512210564</v>
       </c>
       <c r="AF2">
-        <v>0.9748623886123277</v>
+        <v>0.9858418003401461</v>
       </c>
       <c r="AG2">
-        <v>0.9748623886123277</v>
+        <v>0.9858418003401461</v>
       </c>
       <c r="AH2">
-        <v>0.9748623886123277</v>
+        <v>0.9858418003401461</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1430,97 +1430,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2030359476101878</v>
+        <v>0.2427927591715783</v>
       </c>
       <c r="E3">
-        <v>0.2030359476101878</v>
+        <v>0.2737776559202744</v>
       </c>
       <c r="F3">
-        <v>0.670225842304407</v>
+        <v>0.5471327649981907</v>
       </c>
       <c r="G3">
-        <v>0.6712237936768048</v>
+        <v>0.5471327649981907</v>
       </c>
       <c r="H3">
-        <v>0.6973232753655244</v>
+        <v>0.5471327649981907</v>
       </c>
       <c r="I3">
-        <v>0.6973232753655244</v>
+        <v>0.5471327649981907</v>
       </c>
       <c r="J3">
-        <v>0.6973232753655244</v>
+        <v>0.5651268640314775</v>
       </c>
       <c r="K3">
-        <v>0.6973232753655244</v>
+        <v>0.6314818722977604</v>
       </c>
       <c r="L3">
-        <v>0.6973232753655244</v>
+        <v>0.6314818722977604</v>
       </c>
       <c r="M3">
-        <v>0.7125403915177029</v>
+        <v>0.6815406518939877</v>
       </c>
       <c r="N3">
-        <v>0.7125403915177029</v>
+        <v>0.6951685076610459</v>
       </c>
       <c r="O3">
-        <v>0.8175328631617123</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="P3">
-        <v>0.8175328631617123</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="Q3">
-        <v>0.8175328631617123</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="R3">
-        <v>0.8175328631617123</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="S3">
-        <v>0.8256597462583475</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="T3">
-        <v>0.8494228440498545</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="U3">
-        <v>0.8494228440498545</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="V3">
-        <v>0.8494228440498545</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="W3">
-        <v>0.861595128675689</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="X3">
-        <v>0.8731210284490267</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="Y3">
-        <v>0.8731210284490267</v>
+        <v>0.8299763025335508</v>
       </c>
       <c r="Z3">
-        <v>0.9184911645043582</v>
+        <v>0.8486981246885652</v>
       </c>
       <c r="AA3">
-        <v>0.9338233638284976</v>
+        <v>0.8844531965131888</v>
       </c>
       <c r="AB3">
-        <v>0.9338233638284976</v>
+        <v>0.8844531965131888</v>
       </c>
       <c r="AC3">
-        <v>0.9338233638284976</v>
+        <v>0.8844531965131888</v>
       </c>
       <c r="AD3">
-        <v>0.9505845754372002</v>
+        <v>0.9176981161957209</v>
       </c>
       <c r="AE3">
-        <v>0.9505845754372002</v>
+        <v>0.9176981161957209</v>
       </c>
       <c r="AF3">
-        <v>0.9747682271716367</v>
+        <v>0.9874630672503031</v>
       </c>
       <c r="AG3">
-        <v>0.9747682271716367</v>
+        <v>0.9874630672503031</v>
       </c>
       <c r="AH3">
-        <v>0.9747682271716367</v>
+        <v>0.9874630672503031</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152529212304223</v>
+        <v>0.2237373938088804</v>
       </c>
       <c r="E4">
-        <v>0.159386083900929</v>
+        <v>0.2237373938088804</v>
       </c>
       <c r="F4">
-        <v>0.6218224851056837</v>
+        <v>0.5449378349800034</v>
       </c>
       <c r="G4">
-        <v>0.6729763781689067</v>
+        <v>0.5449378349800034</v>
       </c>
       <c r="H4">
-        <v>0.7122132441954077</v>
+        <v>0.5449378349800034</v>
       </c>
       <c r="I4">
-        <v>0.7177107360081485</v>
+        <v>0.5449378349800034</v>
       </c>
       <c r="J4">
-        <v>0.7177107360081485</v>
+        <v>0.5627329221391913</v>
       </c>
       <c r="K4">
-        <v>0.7177107360081485</v>
+        <v>0.6141939748338283</v>
       </c>
       <c r="L4">
-        <v>0.7177107360081485</v>
+        <v>0.6141939748338283</v>
       </c>
       <c r="M4">
-        <v>0.7177107360081485</v>
+        <v>0.658148957041175</v>
       </c>
       <c r="N4">
-        <v>0.7177107360081485</v>
+        <v>0.671663533995783</v>
       </c>
       <c r="O4">
-        <v>0.8006293241612301</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="P4">
-        <v>0.8006293241612301</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="Q4">
-        <v>0.8006293241612301</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="R4">
-        <v>0.8050793020501485</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="S4">
-        <v>0.8064804738145884</v>
+        <v>0.8205730881130067</v>
       </c>
       <c r="T4">
-        <v>0.8489489202368395</v>
+        <v>0.8205730881130067</v>
       </c>
       <c r="U4">
-        <v>0.8489489202368395</v>
+        <v>0.8205730881130067</v>
       </c>
       <c r="V4">
-        <v>0.8489489202368395</v>
+        <v>0.8205730881130067</v>
       </c>
       <c r="W4">
-        <v>0.8838136959720669</v>
+        <v>0.8208257266530847</v>
       </c>
       <c r="X4">
-        <v>0.8882082227574414</v>
+        <v>0.8208257266530847</v>
       </c>
       <c r="Y4">
-        <v>0.8918899471495888</v>
+        <v>0.8208257266530847</v>
       </c>
       <c r="Z4">
-        <v>0.9395870380015012</v>
+        <v>0.847995921027574</v>
       </c>
       <c r="AA4">
-        <v>0.9549705083767374</v>
+        <v>0.881749014167399</v>
       </c>
       <c r="AB4">
-        <v>0.9549705083767374</v>
+        <v>0.881749014167399</v>
       </c>
       <c r="AC4">
-        <v>0.9549705083767374</v>
+        <v>0.881749014167399</v>
       </c>
       <c r="AD4">
-        <v>0.9729682061800397</v>
+        <v>0.9230082085135509</v>
       </c>
       <c r="AE4">
-        <v>0.9729682061800397</v>
+        <v>0.9230082085135509</v>
       </c>
       <c r="AF4">
-        <v>0.9850199522502087</v>
+        <v>0.9847698683250609</v>
       </c>
       <c r="AG4">
-        <v>0.9850199522502087</v>
+        <v>0.9847698683250609</v>
       </c>
       <c r="AH4">
-        <v>0.9850199522502087</v>
+        <v>0.9847698683250609</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2818162333898037</v>
+        <v>0.2162353177400979</v>
       </c>
       <c r="E5">
-        <v>0.4019716350880365</v>
+        <v>0.2162353177400979</v>
       </c>
       <c r="F5">
-        <v>0.6629948555321605</v>
+        <v>0.55685847619434</v>
       </c>
       <c r="G5">
-        <v>0.6629948555321605</v>
+        <v>0.55685847619434</v>
       </c>
       <c r="H5">
-        <v>0.6837451533080996</v>
+        <v>0.55685847619434</v>
       </c>
       <c r="I5">
-        <v>0.6837451533080996</v>
+        <v>0.55685847619434</v>
       </c>
       <c r="J5">
-        <v>0.692339096771316</v>
+        <v>0.5802993800013047</v>
       </c>
       <c r="K5">
-        <v>0.7032337759075625</v>
+        <v>0.6123235626424509</v>
       </c>
       <c r="L5">
-        <v>0.7032337759075625</v>
+        <v>0.6292327674689995</v>
       </c>
       <c r="M5">
-        <v>0.7219010249913571</v>
+        <v>0.6745432515713518</v>
       </c>
       <c r="N5">
-        <v>0.7488831844137234</v>
+        <v>0.6745432515713518</v>
       </c>
       <c r="O5">
-        <v>0.8353616420280874</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="P5">
-        <v>0.8353616420280874</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="Q5">
-        <v>0.8353616420280874</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="R5">
-        <v>0.8353616420280874</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="S5">
-        <v>0.8505412576210715</v>
+        <v>0.8126600801745716</v>
       </c>
       <c r="T5">
-        <v>0.8505412576210715</v>
+        <v>0.8126600801745716</v>
       </c>
       <c r="U5">
-        <v>0.8505412576210715</v>
+        <v>0.8126600801745716</v>
       </c>
       <c r="V5">
-        <v>0.8562541265096808</v>
+        <v>0.8126600801745716</v>
       </c>
       <c r="W5">
-        <v>0.8562541265096808</v>
+        <v>0.815771943353908</v>
       </c>
       <c r="X5">
-        <v>0.8808440559248282</v>
+        <v>0.815771943353908</v>
       </c>
       <c r="Y5">
-        <v>0.8808440559248282</v>
+        <v>0.8160009968463287</v>
       </c>
       <c r="Z5">
-        <v>0.9359009664931618</v>
+        <v>0.8331006553113276</v>
       </c>
       <c r="AA5">
-        <v>0.9383006988118465</v>
+        <v>0.8790675508819676</v>
       </c>
       <c r="AB5">
-        <v>0.9518706919834508</v>
+        <v>0.8790675508819676</v>
       </c>
       <c r="AC5">
-        <v>0.9518706919834508</v>
+        <v>0.8790675508819676</v>
       </c>
       <c r="AD5">
-        <v>0.9587133264279109</v>
+        <v>0.9196858718128172</v>
       </c>
       <c r="AE5">
-        <v>0.9606972539673231</v>
+        <v>0.9196858718128172</v>
       </c>
       <c r="AF5">
-        <v>0.97817704203092</v>
+        <v>0.9892930830787197</v>
       </c>
       <c r="AG5">
-        <v>0.97817704203092</v>
+        <v>0.9892930830787197</v>
       </c>
       <c r="AH5">
-        <v>0.97817704203092</v>
+        <v>0.9892930830787197</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2630237311841145</v>
+        <v>0.2984912183988795</v>
       </c>
       <c r="E6">
-        <v>0.3168910111335548</v>
+        <v>0.3934438247679991</v>
       </c>
       <c r="F6">
-        <v>0.6544589451857052</v>
+        <v>0.5867517561166677</v>
       </c>
       <c r="G6">
-        <v>0.6544589451857052</v>
+        <v>0.5867517561166677</v>
       </c>
       <c r="H6">
-        <v>0.6952283568498441</v>
+        <v>0.5867517561166677</v>
       </c>
       <c r="I6">
-        <v>0.6952283568498441</v>
+        <v>0.5867517561166677</v>
       </c>
       <c r="J6">
-        <v>0.6999841209084531</v>
+        <v>0.5961828373006587</v>
       </c>
       <c r="K6">
-        <v>0.6999841209084531</v>
+        <v>0.6619175016959141</v>
       </c>
       <c r="L6">
-        <v>0.6999841209084531</v>
+        <v>0.6619175016959141</v>
       </c>
       <c r="M6">
-        <v>0.7192240652392348</v>
+        <v>0.6832163555272079</v>
       </c>
       <c r="N6">
-        <v>0.7302460749219621</v>
+        <v>0.7085144646728001</v>
       </c>
       <c r="O6">
-        <v>0.8298903807505207</v>
+        <v>0.8044525178998342</v>
       </c>
       <c r="P6">
-        <v>0.8298903807505207</v>
+        <v>0.8044525178998342</v>
       </c>
       <c r="Q6">
-        <v>0.8298903807505207</v>
+        <v>0.8044525178998342</v>
       </c>
       <c r="R6">
-        <v>0.8298903807505207</v>
+        <v>0.8044525178998342</v>
       </c>
       <c r="S6">
-        <v>0.8395492802842177</v>
+        <v>0.8328965076118761</v>
       </c>
       <c r="T6">
-        <v>0.8417043044020769</v>
+        <v>0.8328965076118761</v>
       </c>
       <c r="U6">
-        <v>0.8417043044020769</v>
+        <v>0.8328965076118761</v>
       </c>
       <c r="V6">
-        <v>0.8459846144291744</v>
+        <v>0.8336431867307212</v>
       </c>
       <c r="W6">
-        <v>0.8459846144291744</v>
+        <v>0.8336431867307212</v>
       </c>
       <c r="X6">
-        <v>0.8753326677086021</v>
+        <v>0.8336431867307212</v>
       </c>
       <c r="Y6">
-        <v>0.8753326677086021</v>
+        <v>0.8336431867307212</v>
       </c>
       <c r="Z6">
-        <v>0.9406260599041942</v>
+        <v>0.8631427242229128</v>
       </c>
       <c r="AA6">
-        <v>0.9442595053381578</v>
+        <v>0.8824343360056761</v>
       </c>
       <c r="AB6">
-        <v>0.9529640171424021</v>
+        <v>0.8881138817169231</v>
       </c>
       <c r="AC6">
-        <v>0.9529640171424021</v>
+        <v>0.8881138817169231</v>
       </c>
       <c r="AD6">
-        <v>0.9652748089318607</v>
+        <v>0.9098783392487706</v>
       </c>
       <c r="AE6">
-        <v>0.9652748089318607</v>
+        <v>0.914577242684753</v>
       </c>
       <c r="AF6">
-        <v>0.9787135470405959</v>
+        <v>0.9776649848002651</v>
       </c>
       <c r="AG6">
-        <v>0.9787135470405959</v>
+        <v>0.9776649848002651</v>
       </c>
       <c r="AH6">
-        <v>0.9787135470405959</v>
+        <v>0.9776649848002651</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6762675483303523</v>
+        <v>0.5559802443433948</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.670225842304407</v>
+        <v>0.5471327649981907</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6218224851056837</v>
+        <v>0.5449378349800034</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6629948555321605</v>
+        <v>0.55685847619434</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6544589451857052</v>
+        <v>0.5867517561166677</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7022104516239559</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7125403915177029</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7122132441954077</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7032337759075625</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7085144646728001</v>
+      </c>
+      <c r="G6">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7192240652392348</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8268511476592505</v>
+        <v>0.8057143114202553</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8175328631617123</v>
+        <v>0.8200528914818127</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8006293241612301</v>
+        <v>0.8036077156656402</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8353616420280874</v>
+        <v>0.8091738602017653</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8298903807505207</v>
+        <v>0.8044525178998342</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9138538761796406</v>
+        <v>0.9095779512210564</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9184911645043582</v>
+        <v>0.9176981161957209</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395870380015012</v>
+        <v>0.9230082085135509</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9359009664931618</v>
+        <v>0.9196858718128172</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9406260599041942</v>
+        <v>0.9098783392487706</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>62</v>
